--- a/biology/Botanique/Spermacoce_latifolia/Spermacoce_latifolia.xlsx
+++ b/biology/Botanique/Spermacoce_latifolia/Spermacoce_latifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spermacoce latifolia est une espèce de plantes herbacées rudérale d'origine néotropicales appartenant à la famille des Rubiaceae.
 </t>
@@ -511,15 +523,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Spermacoce latifolia est une herbacée pérenne, rampantes, atteignant jusqu'à 1 m de haut, à tiges quadrangulaires, visiblement ailées, et pubescentes.
 Les stipules sont fimbriées, avec une nervure basale de 1-2,5 x 4 mm, densément pubescente (poils longs de 1,5 mm), avec 5-7 soies longues de 1,5-6 mm.
 Les feuilles sont pubescentes avec le limbe elliptique-ovée à ovale, mesurant 1-5 x 0,5-2 cm.
 Les inflorescences sont axillaires (parfois terminales), sessiles, avec des fleurs composées d'un calice à 4 lobes, long de 3-4 mm, et d'une corolle blanche à bleu pâle, longue de 4,5-6,5 mm de long (tube long de 2,5-5 mm, et lobes longs de 1-1,5 mm).
-Les fruits sont subglobuleux, pubescents, longs de 2,5-4 mm[4].
-Spermacoce latifolia, espèce largement répandue et variable, se caractérise par ses inflorescences produites à de nombreux nœuds le long de la tige et par des capsules subglobuleuses relativement grandes et généralement pubescentes. Les plantes sèches ont souvent une couleur jaune-vert caractéristique, similaire à celle de S. hispida, S. alata, et S. wurdackii[5].
-Elle est souvent confondue avec Spermacoce alata[6].
+Les fruits sont subglobuleux, pubescents, longs de 2,5-4 mm.
+Spermacoce latifolia, espèce largement répandue et variable, se caractérise par ses inflorescences produites à de nombreux nœuds le long de la tige et par des capsules subglobuleuses relativement grandes et généralement pubescentes. Les plantes sèches ont souvent une couleur jaune-vert caractéristique, similaire à celle de S. hispida, S. alata, et S. wurdackii.
+Elle est souvent confondue avec Spermacoce alata.
 </t>
         </is>
       </c>
@@ -548,13 +562,15 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Spermacoce latifolia dans des habitats ensoleillés et perturbés[4], sur les rives de cours d'eau, les forêts riveraines, les savanes bordant les marécages de palmiers-bâche, les terrains vagues et ouverts, à 50-200 m d'altitude[5].
-Elle est considérée comme adventice nuisible à colonisation agressive là où elle a été introduite hors d'Amérique tropicale[6],[7],[8],[9].
-Les facteurs provoquant la levée de dormance de ses graines ont été étudiés[10],[11],[12].
-Spermacoce latifolia est hôte du puceron Aphis gossypii[13].
-Sa résistance aux herbicides a été étudiée dans des cultures de soja[14].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Spermacoce latifolia dans des habitats ensoleillés et perturbés, sur les rives de cours d'eau, les forêts riveraines, les savanes bordant les marécages de palmiers-bâche, les terrains vagues et ouverts, à 50-200 m d'altitude.
+Elle est considérée comme adventice nuisible à colonisation agressive là où elle a été introduite hors d'Amérique tropicale.
+Les facteurs provoquant la levée de dormance de ses graines ont été étudiés.
+Spermacoce latifolia est hôte du puceron Aphis gossypii.
+Sa résistance aux herbicides a été étudiée dans des cultures de soja.
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spermacoce latifolia est largement répandu de la Colombie, au  Brésil, en passant par le Venezuela, Trinidad, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, la Bolivie, et a été introduite en Afrique, en Asie et dans les îles du Pacifique[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spermacoce latifolia est largement répandu de la Colombie, au  Brésil, en passant par le Venezuela, Trinidad, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, la Bolivie, et a été introduite en Afrique, en Asie et dans les îles du Pacifique.
 </t>
         </is>
       </c>
@@ -614,11 +632,13 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On a extrait diverses substances de Spermacoce latifolia : flavonoïdes et composés polyphénoliques antioxydants[15], dérivés phénoliques polycycliques[16], dérivés de coumarine originaux[17], ursane, triterpènes d'acide oléique[18], anthraquinone, naphtoquinone[19], composés apolaires[20], et triterpènes[21].
-Son extrait présente des propriétés larvicides pouvant être employé pour le traitement anti-moustique d’Aedes aegypti[22]
-Spermacoce latifolia est une plante médicinale au Bangladesh, connue sous le nom de Ghuiojhil Shak qui présente des propriétés hépatoprotectrices, antioxydantes, antitumorales, antimicrobiennes, anti-inflammatoires et larvicides. Le jus de racine aurait des vertus anti-malariales. Les feuilles seraient utilisées pour le soin des yeux, contre la conjonctivite, les hémorroïdes, les calculs biliaires. Les graines auraient des propriétés anti-diarrhéiques et peuvent être utilisées pour soigner les problèmes dentaires, les fièvres et la dysenterie. On l'utiliserait aussi pour soulager les maux de tête, les maux de dents, les plaies, les traumatismes, la constipation, l'arthrite, etc.[23].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a extrait diverses substances de Spermacoce latifolia : flavonoïdes et composés polyphénoliques antioxydants, dérivés phénoliques polycycliques, dérivés de coumarine originaux, ursane, triterpènes d'acide oléique, anthraquinone, naphtoquinone, composés apolaires, et triterpènes.
+Son extrait présente des propriétés larvicides pouvant être employé pour le traitement anti-moustique d’Aedes aegypti
+Spermacoce latifolia est une plante médicinale au Bangladesh, connue sous le nom de Ghuiojhil Shak qui présente des propriétés hépatoprotectrices, antioxydantes, antitumorales, antimicrobiennes, anti-inflammatoires et larvicides. Le jus de racine aurait des vertus anti-malariales. Les feuilles seraient utilisées pour le soin des yeux, contre la conjonctivite, les hémorroïdes, les calculs biliaires. Les graines auraient des propriétés anti-diarrhéiques et peuvent être utilisées pour soigner les problèmes dentaires, les fièvres et la dysenterie. On l'utiliserait aussi pour soulager les maux de tête, les maux de dents, les plaies, les traumatismes, la constipation, l'arthrite, etc..
 </t>
         </is>
       </c>
@@ -647,7 +667,9 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1775, le botaniste Aublet a décrit cette espèce sous trois noms différents Spermacoce latifolia, Spermacoce caerulescens et Spermacoce aspera, dont les protologues sont les suivants :
 « 1. SPERMACOCE ( latifolia ) caule erecto, quadrangulari ; floribus axillaribus. (Tabula 19. fig. 1).
